--- a/data/ad_ts_refine_script_df_250203.xlsx
+++ b/data/ad_ts_refine_script_df_250203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyuantao/Desktop/Mac科研/experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8559C-6D1C-8E40-9933-628FEC385FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90F8338-8D8F-7C42-840C-DEA1E991661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L483"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>

--- a/data/ad_ts_refine_script_df_250203.xlsx
+++ b/data/ad_ts_refine_script_df_250203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyuantao/Desktop/Mac科研/experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB5D88-F398-4B45-A1E0-B0A3B73403D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE6512-1F77-AD4B-8FDA-A1CE7988045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2920" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>team</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>refine_script</t>
-  </si>
-  <si>
-    <t>prompt_group_1</t>
   </si>
   <si>
     <t>test</t>
@@ -68,49 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Condition_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a marketing expert. You are tasked with creating an engaging and effective advertisement script for Ice Cream Tub(Breyers). 
-Requirements:
-1. The scene description takes the same amount of time as the storyteller's statement.  
-   Format:  
-   [Scene: last ? seconds: ...]  
-   Narrator: ...  
-   [Scene: last ? seconds: ...]  
-   Narrator: ...  
-   ...  
-2. Make sure there is only one narrator and no dialogue from other characters.  
-3. Ensure that only one character appears in the ad.  
-4. Use 'Product type(Product's name)' in each Scene if there is a product. For example, ice cream tub(Breyers) and toothpaste(Colgate).  
-5. When it comes to 'eat the ice cream', use 'eat the ice cream with a spoon' in the script. When it comes to 'brush the teeth', use 'brush the teeth with a toothbrush' in the script.  
-6. For each Scene that includes a character, use the following format:  
-   'Name(Character's outlook description) + Character's Expression + Character's movement'.  
-   The character's outlook description should be a short sentence. Avoid using 'same description' or only showing the name; provide a full description each time.  
-7. Just output the script and the time info in plaintext. Do not include other format information like '```plaintext', '```markdown', or '### Head &amp; Shoulders Shampoo Ad Script'.  
-8. The format requirements are strict.  
-</t>
-  </si>
-  <si>
-    <t>[Scene: last 5 seconds: A young woman with curly hair dressed in a cozy sweater stands in her kitchen. She looks delighted as she opens the freezer and reaches for an ice cream tub(Breyers).]
-Narrator: Discover the joy of delicious moments with Breyers.
-[Scene: last 5 seconds: A young woman with curly hair dressed in a cozy sweater smiles warmly as she removes the lid from the ice cream tub(Breyers).]
-Narrator: Crafted from the freshest ingredients, it’s the perfect treat anytime.
-[Scene: last 6 seconds: A young woman with curly hair dressed in a cozy sweater grins as she eat the ice cream with a spoon from the ice cream tub(Breyers).]
-Narrator: Indulge in creamy, dreamy flavors that awaken your taste buds.
-[Scene: last 4 seconds: A young woman with curly hair dressed in a cozy sweater looks satisfied as she takes another bite from the ice cream tub(Breyers).]
-Narrator: Breyers, bringing families together one scoop at a time.</t>
-  </si>
-  <si>
-    <t>[Scene: last 5 seconds: A young woman with curly hair, wearing a cozy sweater, stands in her kitchen. She looks delighted as she opens the freezer and reaches for an ice cream tub(Breyers).]
-Narrator: Discover the joy of delicious moments with Breyers.
-[Scene: last 5 seconds: A young woman with curly hair, in a cozy sweater, smiles warmly as she removes the lid from the ice cream tub(Breyers).]
-Narrator: Crafted from the freshest ingredients, it’s the perfect treat anytime.
-[Scene: last 6 seconds: A young woman with curly hair, dressed in a cozy sweater, grins as she eats the ice cream with a spoon from the ice cream tub(Breyers).]
-Narrator: Indulge in creamy, dreamy flavors that awaken your taste buds.
-[Scene: last 4 seconds: A young woman with curly hair, in a cozy sweater, looks satisfied as she takes another bite with a spoon from the ice cream tub(Breyers).]
-Narrator: Breyers, bringing families together one scoop at a time.</t>
+    <t>Condition_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_1</t>
   </si>
 </sst>
 </file>
@@ -457,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -479,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -517,28 +476,72 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>233</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
